--- a/medicine/Mort/Nécropole/Nécropole.xlsx
+++ b/medicine/Mort/Nécropole/Nécropole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole</t>
+          <t>Nécropole</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une nécropole (du grec nécros et polis : Cité des morts) est un groupement de sépultures monumentales ou de tombes séparées des lieux de culte. Espace funéraire généralement antique, il se distingue du champ funéraire préhistorique qui n'abrite pas de monuments, et du cimetière médiéval qui voit l'extension des lieux de culte à leur environnement funéraire sacralisé[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une nécropole (du grec nécros et polis : Cité des morts) est un groupement de sépultures monumentales ou de tombes séparées des lieux de culte. Espace funéraire généralement antique, il se distingue du champ funéraire préhistorique qui n'abrite pas de monuments, et du cimetière médiéval qui voit l'extension des lieux de culte à leur environnement funéraire sacralisé.
 Ce terme provient à l'origine d'une zone de l'antique Alexandrie appelée Nécropolis où l'on enterrait les morts et que l'on devrait qualifier de nécrochore, une accumulation de sépultures formant une agglomération (chora) et située en dehors des espaces d'habitations formant la ville proprement dite.
 Par extension, le terme peut prendre plusieurs sens :
 un groupement de nombreuses tombes, dans le sens employé en archéologie ;
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole</t>
+          <t>Nécropole</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,7 +529,9 @@
           <t>Nécropoles mésopotamiennes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cimetière royal d'Ur
 Nécropole d'Hillah, près de Babylone</t>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole</t>
+          <t>Nécropole</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Nécropoles égyptiennes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Abydos
 Saqqarah
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole</t>
+          <t>Nécropole</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,7 +603,9 @@
           <t>Nécropoles grecques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cimetière du Céramique (Athènes)
 Nécropole de Phalère (Athènes)
@@ -606,7 +624,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole</t>
+          <t>Nécropole</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -624,7 +642,9 @@
           <t>Nécropoles étrusques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Quelques exemples :
 Tarquinia : nécropole de Monterozzi (6 000 tombes, dont 200 peintes).
@@ -644,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole</t>
+          <t>Nécropole</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -664,14 +684,87 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Nécropoles préhistoriques
-Liévin, sur la butte nommée "Riaumont" des traces des époques néolithique et gallo-romaine, ainsi que 752 tombes ont été découvertes.
-Lauwin-Planque : nécropole de l'âge du bronze (-2000 à 1700 av. J.-C.) dans le périmètre de la ZAC Lauwin-Park.
-Nécropoles celtes
-Nécropole gauloise de Bouqueval
-Cimetière celtique de La Fosse Cotheret
-Nécropoles romaines et mérovingiennes
-Arles - Les Alyscamps : nécropole de plusieurs sarcophages, datant de l'époque romaine
+          <t>Nécropoles préhistoriques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Liévin, sur la butte nommée "Riaumont" des traces des époques néolithique et gallo-romaine, ainsi que 752 tombes ont été découvertes.
+Lauwin-Planque : nécropole de l'âge du bronze (-2000 à 1700 av. J.-C.) dans le périmètre de la ZAC Lauwin-Park.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nécropole</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropole</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Nécropoles françaises</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nécropoles celtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Nécropole gauloise de Bouqueval
+Cimetière celtique de La Fosse Cotheret</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Nécropole</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropole</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Nécropoles françaises</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nécropoles romaines et mérovingiennes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Arles - Les Alyscamps : nécropole de plusieurs sarcophages, datant de l'époque romaine
 Audun-le-Tiche : nécropole mérovingienne et fanum gallo-romain
 Nécropole gallo-romaine et mérovingienne de Breny
 Nécropole mérovingienne du Brigandin à Chéméré (Loire-Atlantique)
@@ -680,45 +773,148 @@
 Civaux : nécropole de plusieurs centaines de sarcophages, datant de l'époque mérovingienne
 Menucourt, rue des Poiriers-Gris, ancienne nécropole.
 Goudelancourt-lès-Pierrepont : nécropole mérovingienne
-Vorges : nécropole datant de l'époque mérovingienne
-Nécropoles des rois, princes et grands hommes
-basilique de Saint-Denis : nécropole des rois de France
+Vorges : nécropole datant de l'époque mérovingienne</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Nécropole</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropole</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Nécropoles françaises</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nécropoles des rois, princes et grands hommes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>basilique de Saint-Denis : nécropole des rois de France
 Panthéon de Paris : nécropole des Grands Hommes
 Hôtel des Invalides : nécropole des grands chefs militaires français
-Chapelle royale de Dreux : nécropole de la Maison d'Orléans
-Nécropoles nationales de la Première Guerre mondiale
-Nécropole de la Seconde Guerre mondiale
-Nécropole nationale de Condé-Folie (Somme)
-Nécropole des guerres en Indochine
-Mémorial des guerres en Indochine à Fréjus (département du Var)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>N%C3%A9cropole</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropole</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+Chapelle royale de Dreux : nécropole de la Maison d'Orléans</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Nécropole</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropole</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Nécropoles françaises</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Nécropole de la Seconde Guerre mondiale</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Nécropole nationale de Condé-Folie (Somme)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Nécropole</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropole</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Nécropoles françaises</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Nécropole des guerres en Indochine</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Mémorial des guerres en Indochine à Fréjus (département du Var)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Nécropole</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropole</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Nécropoles suisses</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>La Tène
 Le Mormont
@@ -726,31 +922,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>N%C3%A9cropole</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropole</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Nécropole</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropole</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Autres nécropoles</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Nécropole papale de la basilique Saint-Pierre
 Nécropole de Chella à Rabat au Maroc
